--- a/data/trans_orig/P6716-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54E655AB-D73E-4A94-987B-9D772B8848C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBAB0EDB-0D72-464F-8B4E-FB6B13E828D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EBE5647D-3FA1-43A6-9B2A-C03C3BBC29F6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54D12215-B56F-4AC6-86CB-985AF874DC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="514">
   <si>
     <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -870,139 +870,142 @@
     <t>2,52%</t>
   </si>
   <si>
-    <t>15,03%</t>
+    <t>12,46%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>16,65%</t>
+    <t>19,85%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>8,75%</t>
+    <t>8,86%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>14,42%</t>
+    <t>14,91%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>13,93%</t>
+    <t>13,98%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
   </si>
   <si>
     <t>26,55%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
+    <t>41,27%</t>
   </si>
   <si>
     <t>42,03%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
   </si>
   <si>
     <t>47,74%</t>
   </si>
   <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
   </si>
   <si>
     <t>36,47%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
   </si>
   <si>
     <t>43,18%</t>
   </si>
   <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>11,69%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>7,82%</t>
@@ -1011,562 +1014,571 @@
     <t>4,61%</t>
   </si>
   <si>
-    <t>12,21%</t>
+    <t>12,3%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
+    <t>14,18%</t>
   </si>
   <si>
     <t>8,09%</t>
   </si>
   <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>33,93%</t>
   </si>
   <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
+    <t>29,09%</t>
   </si>
   <si>
     <t>34,19%</t>
   </si>
   <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
   </si>
   <si>
     <t>23,97%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>23,35%</t>
   </si>
   <si>
-    <t>28,97%</t>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
   </si>
   <si>
     <t>23,7%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>29,93%</t>
   </si>
   <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>31,84%</t>
   </si>
   <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
   </si>
   <si>
     <t>30,75%</t>
   </si>
   <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
   </si>
   <si>
     <t>26,6%</t>
   </si>
   <si>
-    <t>22,71%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
   <si>
     <t>25,07%</t>
   </si>
   <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
   </si>
   <si>
     <t>49,64%</t>
   </si>
   <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>44,64%</t>
   </si>
   <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
+    <t>4,85%</t>
+  </si>
+  <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>4,63%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>24,52%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
   </si>
   <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>25,35%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>43,47%</t>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
   </si>
 </sst>
 </file>
@@ -1978,7 +1990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE36CAD5-1B6C-4B5B-8176-12D417FB13FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDEF7E0-2A2B-4F2B-B0CB-14BE7407E874}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3959,7 +3971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE99994-A9FC-43B6-B761-A6BEA7427875}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE347DE5-2E9D-43DD-BFEF-7E356104CED1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4218,10 +4230,10 @@
         <v>34</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>29</v>
+        <v>295</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,10 +4248,10 @@
         <v>11687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>297</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>298</v>
@@ -4409,10 +4421,10 @@
         <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4421,13 +4433,13 @@
         <v>16887</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4454,13 @@
         <v>15575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4457,10 +4469,10 @@
         <v>11666</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>327</v>
@@ -4529,7 +4541,7 @@
         <v>338</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>339</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4556,13 @@
         <v>64131</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4559,13 +4571,13 @@
         <v>39652</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -4574,13 +4586,13 @@
         <v>103782</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,13 +4607,13 @@
         <v>73483</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -4610,13 +4622,13 @@
         <v>46281</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -4625,13 +4637,13 @@
         <v>119764</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4711,13 @@
         <v>14169</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>147</v>
+        <v>359</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4714,13 +4726,13 @@
         <v>8311</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4729,13 +4741,13 @@
         <v>22480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>159</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4762,13 @@
         <v>21663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -4765,13 +4777,13 @@
         <v>14376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -4780,13 +4792,13 @@
         <v>36039</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>373</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4813,13 @@
         <v>77618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -4816,13 +4828,13 @@
         <v>51999</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M18" s="7">
         <v>120</v>
@@ -4831,13 +4843,13 @@
         <v>129618</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4864,13 @@
         <v>123744</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -4867,13 +4879,13 @@
         <v>81171</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>195</v>
@@ -4882,13 +4894,13 @@
         <v>204915</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4915,13 @@
         <v>176847</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H20" s="7">
         <v>114</v>
@@ -4918,13 +4930,13 @@
         <v>117913</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>272</v>
@@ -4933,13 +4945,13 @@
         <v>294761</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5019,13 @@
         <v>14795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>396</v>
+        <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -5025,10 +5037,10 @@
         <v>280</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -5040,10 +5052,10 @@
         <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>400</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5070,13 @@
         <v>29496</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -5076,10 +5088,10 @@
         <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -5088,13 +5100,13 @@
         <v>50610</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5121,13 @@
         <v>123445</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>411</v>
+        <v>225</v>
       </c>
       <c r="H24" s="7">
         <v>90</v>
@@ -5124,13 +5136,13 @@
         <v>92511</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M24" s="7">
         <v>197</v>
@@ -5139,13 +5151,13 @@
         <v>215956</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5172,13 @@
         <v>87195</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -5175,13 +5187,13 @@
         <v>63166</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>426</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="M25" s="7">
         <v>144</v>
@@ -5190,13 +5202,13 @@
         <v>150361</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5223,13 @@
         <v>108890</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -5226,13 +5238,13 @@
         <v>86159</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M26" s="7">
         <v>184</v>
@@ -5241,13 +5253,13 @@
         <v>195049</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,10 +5330,10 @@
         <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>100</v>
+        <v>440</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>435</v>
+        <v>369</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -5330,13 +5342,13 @@
         <v>21804</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="M28" s="7">
         <v>30</v>
@@ -5348,10 +5360,10 @@
         <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,10 +5381,10 @@
         <v>247</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -5381,13 +5393,13 @@
         <v>18145</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -5396,13 +5408,13 @@
         <v>32181</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5429,13 @@
         <v>69714</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="H30" s="7">
         <v>60</v>
@@ -5432,13 +5444,13 @@
         <v>64745</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="M30" s="7">
         <v>128</v>
@@ -5447,13 +5459,13 @@
         <v>134459</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5480,13 @@
         <v>106700</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>294</v>
+        <v>464</v>
       </c>
       <c r="H31" s="7">
         <v>73</v>
@@ -5483,13 +5495,13 @@
         <v>75474</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="M31" s="7">
         <v>180</v>
@@ -5498,13 +5510,13 @@
         <v>182175</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,13 +5531,13 @@
         <v>199158</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="H32" s="7">
         <v>138</v>
@@ -5534,13 +5546,13 @@
         <v>145306</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="M32" s="7">
         <v>333</v>
@@ -5552,10 +5564,10 @@
         <v>266</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,13 +5635,13 @@
         <v>49355</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>59</v>
+        <v>480</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>474</v>
+        <v>30</v>
       </c>
       <c r="H34" s="7">
         <v>45</v>
@@ -5638,13 +5650,13 @@
         <v>47858</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>475</v>
+        <v>357</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="M34" s="7">
         <v>87</v>
@@ -5653,13 +5665,13 @@
         <v>97213</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>145</v>
+        <v>448</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>152</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5686,13 @@
         <v>82695</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="H35" s="7">
         <v>64</v>
@@ -5689,13 +5701,13 @@
         <v>66098</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>482</v>
+        <v>199</v>
       </c>
       <c r="M35" s="7">
         <v>139</v>
@@ -5704,13 +5716,13 @@
         <v>148792</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>484</v>
+        <v>159</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5737,13 @@
         <v>317423</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>487</v>
+        <v>127</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H36" s="7">
         <v>238</v>
@@ -5743,10 +5755,10 @@
         <v>222</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>490</v>
+        <v>262</v>
       </c>
       <c r="M36" s="7">
         <v>526</v>
@@ -5755,13 +5767,13 @@
         <v>562056</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5788,13 @@
         <v>393457</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H37" s="7">
         <v>271</v>
@@ -5791,13 +5803,13 @@
         <v>272025</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M37" s="7">
         <v>647</v>
@@ -5806,13 +5818,13 @@
         <v>665481</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>343</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5839,13 @@
         <v>579393</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>417</v>
+        <v>506</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="H38" s="7">
         <v>395</v>
@@ -5842,13 +5854,13 @@
         <v>406559</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="M38" s="7">
         <v>937</v>
@@ -5857,13 +5869,13 @@
         <v>985952</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6716-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBAB0EDB-0D72-464F-8B4E-FB6B13E828D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F160C2A-D7F6-4973-940E-E5D5C84CEA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54D12215-B56F-4AC6-86CB-985AF874DC3F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E947F83-1CDA-484A-B4BC-50D704295204}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="507">
   <si>
     <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -78,19 +78,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,67%</t>
+    <t>7,04%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>19,63%</t>
+    <t>19,41%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>7,53%</t>
+    <t>7,21%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -114,1471 +114,1450 @@
     <t>13,15%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>21,77%</t>
+    <t>21,71%</t>
   </si>
   <si>
     <t>10,25%</t>
   </si>
   <si>
-    <t>4,7%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,62%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
   </si>
   <si>
     <t>54,26%</t>
   </si>
   <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>24,69%</t>
   </si>
   <si>
     <t>23,59%</t>
   </si>
   <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>24,56%</t>
   </si>
   <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
+    <t>30,03%</t>
   </si>
   <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
     <t>28,88%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDEF7E0-2A2B-4F2B-B0CB-14BE7407E874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35F4A72-0DAE-4D57-8A01-1C94F967E349}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3044,7 +3023,7 @@
         <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3053,13 +3032,13 @@
         <v>5473</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -3068,10 +3047,10 @@
         <v>15658</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>152</v>
@@ -3191,13 +3170,13 @@
         <v>62420</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -3206,13 +3185,13 @@
         <v>51230</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -3221,13 +3200,13 @@
         <v>113650</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3221,13 @@
         <v>174678</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>86</v>
@@ -3257,13 +3236,13 @@
         <v>96910</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>242</v>
@@ -3272,13 +3251,13 @@
         <v>271588</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,7 +3313,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3346,13 +3325,13 @@
         <v>12055</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -3400,7 +3379,7 @@
         <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>199</v>
@@ -3481,10 +3460,10 @@
         <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3478,13 @@
         <v>115227</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>75</v>
@@ -3514,13 +3493,13 @@
         <v>75936</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>187</v>
@@ -3529,13 +3508,13 @@
         <v>191163</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3529,13 @@
         <v>183338</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>120</v>
@@ -3565,13 +3544,13 @@
         <v>125915</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>295</v>
@@ -3580,13 +3559,13 @@
         <v>309252</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3633,13 @@
         <v>39203</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>115</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>28</v>
@@ -3669,13 +3648,13 @@
         <v>28497</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>65</v>
@@ -3687,10 +3666,10 @@
         <v>105</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3684,13 @@
         <v>59285</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
@@ -3720,13 +3699,13 @@
         <v>43557</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>93</v>
@@ -3735,13 +3714,13 @@
         <v>102841</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3735,13 @@
         <v>256855</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>187</v>
@@ -3771,13 +3750,13 @@
         <v>204294</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>431</v>
@@ -3786,13 +3765,13 @@
         <v>461149</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3786,13 @@
         <v>351462</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H37" s="7">
         <v>214</v>
@@ -3822,13 +3801,13 @@
         <v>223944</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>547</v>
@@ -3837,13 +3816,13 @@
         <v>575406</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>87</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3837,13 @@
         <v>712947</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H38" s="7">
         <v>407</v>
@@ -3873,13 +3852,13 @@
         <v>446062</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M38" s="7">
         <v>1071</v>
@@ -3888,13 +3867,13 @@
         <v>1159009</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,7 +3929,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3971,7 +3950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE347DE5-2E9D-43DD-BFEF-7E356104CED1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DED7A98-CD4D-4757-A8A5-A724422C517E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3988,7 +3967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4095,13 +4074,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4110,13 +4089,13 @@
         <v>968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4125,13 +4104,13 @@
         <v>2076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4125,13 @@
         <v>1926</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4161,13 +4140,13 @@
         <v>796</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4176,13 +4155,13 @@
         <v>2722</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4176,13 @@
         <v>8286</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4212,13 +4191,13 @@
         <v>4665</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>293</v>
+        <v>110</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4227,13 +4206,13 @@
         <v>12951</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>296</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4227,13 @@
         <v>11687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>121</v>
+        <v>294</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4263,13 +4242,13 @@
         <v>12562</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -4278,13 +4257,13 @@
         <v>24249</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4278,13 @@
         <v>21015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4314,13 +4293,13 @@
         <v>10900</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -4329,13 +4308,13 @@
         <v>31914</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4382,13 @@
         <v>7721</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>315</v>
+        <v>106</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4418,13 +4397,13 @@
         <v>9167</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4433,13 +4412,13 @@
         <v>16887</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4433,13 @@
         <v>15575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4469,13 +4448,13 @@
         <v>11666</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>323</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -4484,13 +4463,13 @@
         <v>27241</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4484,13 @@
         <v>38360</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -4520,13 +4499,13 @@
         <v>30712</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M12" s="7">
         <v>68</v>
@@ -4535,13 +4514,13 @@
         <v>69072</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>218</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4535,13 @@
         <v>64131</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4571,13 +4550,13 @@
         <v>39652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -4586,13 +4565,13 @@
         <v>103782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4586,13 @@
         <v>73483</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -4622,13 +4601,13 @@
         <v>46281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -4637,13 +4616,13 @@
         <v>119764</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4690,13 @@
         <v>14169</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>358</v>
+        <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4726,13 +4705,13 @@
         <v>8311</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4741,13 +4720,13 @@
         <v>22480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>364</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4741,13 @@
         <v>21663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -4777,13 +4756,13 @@
         <v>14376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -4792,13 +4771,13 @@
         <v>36039</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>372</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4792,13 @@
         <v>77618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -4828,13 +4807,13 @@
         <v>51999</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M18" s="7">
         <v>120</v>
@@ -4843,13 +4822,13 @@
         <v>129618</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4843,13 @@
         <v>123744</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -4879,13 +4858,13 @@
         <v>81171</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M19" s="7">
         <v>195</v>
@@ -4894,13 +4873,13 @@
         <v>204915</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4894,13 @@
         <v>176847</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>114</v>
@@ -4930,13 +4909,13 @@
         <v>117913</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>272</v>
@@ -4945,13 +4924,13 @@
         <v>294761</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +4998,13 @@
         <v>14795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>16</v>
+        <v>396</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -5034,13 +5013,13 @@
         <v>7607</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>403</v>
+        <v>60</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -5049,13 +5028,13 @@
         <v>22402</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>399</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>109</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5049,13 @@
         <v>29496</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>407</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -5085,13 +5064,13 @@
         <v>21115</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>404</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -5100,13 +5079,13 @@
         <v>50610</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>413</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5100,13 @@
         <v>123445</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>225</v>
+        <v>411</v>
       </c>
       <c r="H24" s="7">
         <v>90</v>
@@ -5136,13 +5115,13 @@
         <v>92511</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M24" s="7">
         <v>197</v>
@@ -5151,13 +5130,13 @@
         <v>215956</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5151,13 @@
         <v>87195</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -5187,13 +5166,13 @@
         <v>63166</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>425</v>
+        <v>220</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>426</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M25" s="7">
         <v>144</v>
@@ -5202,13 +5181,13 @@
         <v>150361</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5202,13 @@
         <v>108890</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>432</v>
+        <v>336</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -5238,13 +5217,13 @@
         <v>86159</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="M26" s="7">
         <v>184</v>
@@ -5253,13 +5232,13 @@
         <v>195049</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5294,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5327,13 +5306,13 @@
         <v>11563</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -5342,13 +5321,13 @@
         <v>21804</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>442</v>
+        <v>237</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M28" s="7">
         <v>30</v>
@@ -5360,10 +5339,10 @@
         <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>241</v>
+        <v>437</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5357,13 @@
         <v>14036</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>445</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -5393,13 +5372,13 @@
         <v>18145</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -5408,13 +5387,13 @@
         <v>32181</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>451</v>
+        <v>361</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5408,13 @@
         <v>69714</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="H30" s="7">
         <v>60</v>
@@ -5444,13 +5423,13 @@
         <v>64745</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="M30" s="7">
         <v>128</v>
@@ -5459,13 +5438,13 @@
         <v>134459</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5459,13 @@
         <v>106700</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="H31" s="7">
         <v>73</v>
@@ -5495,13 +5474,13 @@
         <v>75474</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>467</v>
+        <v>131</v>
       </c>
       <c r="M31" s="7">
         <v>180</v>
@@ -5510,13 +5489,13 @@
         <v>182175</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5510,13 @@
         <v>199158</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="H32" s="7">
         <v>138</v>
@@ -5546,13 +5525,13 @@
         <v>145306</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="M32" s="7">
         <v>333</v>
@@ -5561,13 +5540,13 @@
         <v>344464</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>266</v>
+        <v>468</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5614,13 @@
         <v>49355</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="H34" s="7">
         <v>45</v>
@@ -5650,13 +5629,13 @@
         <v>47858</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>324</v>
+        <v>30</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>357</v>
+        <v>473</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="M34" s="7">
         <v>87</v>
@@ -5665,13 +5644,13 @@
         <v>97213</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>448</v>
+        <v>275</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5665,13 @@
         <v>82695</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="H35" s="7">
         <v>64</v>
@@ -5701,13 +5680,13 @@
         <v>66098</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M35" s="7">
         <v>139</v>
@@ -5716,13 +5695,13 @@
         <v>148792</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>159</v>
+        <v>434</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5716,13 @@
         <v>317423</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>127</v>
+        <v>484</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H36" s="7">
         <v>238</v>
@@ -5752,13 +5731,13 @@
         <v>244633</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>222</v>
+        <v>486</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>262</v>
+        <v>488</v>
       </c>
       <c r="M36" s="7">
         <v>526</v>
@@ -5767,13 +5746,13 @@
         <v>562056</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5767,13 @@
         <v>393457</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>497</v>
+        <v>209</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H37" s="7">
         <v>271</v>
@@ -5803,13 +5782,13 @@
         <v>272025</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M37" s="7">
         <v>647</v>
@@ -5818,13 +5797,13 @@
         <v>665481</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>503</v>
+        <v>459</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5818,13 @@
         <v>579393</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="H38" s="7">
         <v>395</v>
@@ -5854,13 +5833,13 @@
         <v>406559</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="M38" s="7">
         <v>937</v>
@@ -5869,13 +5848,13 @@
         <v>985952</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,7 +5910,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6716-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F160C2A-D7F6-4973-940E-E5D5C84CEA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55AE6001-F051-4A50-AF05-67590382B31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E947F83-1CDA-484A-B4BC-50D704295204}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{229D7947-39B9-4475-9238-A51560458E8E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="510">
   <si>
     <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -78,19 +78,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,04%</t>
+    <t>7,67%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>19,41%</t>
+    <t>19,63%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>7,21%</t>
+    <t>7,53%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -114,1450 +114,1459 @@
     <t>13,15%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>21,71%</t>
+    <t>21,77%</t>
   </si>
   <si>
     <t>10,25%</t>
   </si>
   <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si hablan con entusiasmo de su empresa a otras personas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>22,71%</t>
   </si>
   <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>7,92%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>7,17%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>24,56%</t>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>30,03%</t>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>28,88%</t>
+    <t>25,35%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>43,47%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
   </si>
 </sst>
 </file>
@@ -1969,7 +1978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35F4A72-0DAE-4D57-8A01-1C94F967E349}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADFF8BE-418E-4CB5-A4CF-FE07BBF1486B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3023,7 +3032,7 @@
         <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3032,13 +3041,13 @@
         <v>5473</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -3047,10 +3056,10 @@
         <v>15658</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>152</v>
@@ -3170,13 +3179,13 @@
         <v>62420</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -3185,13 +3194,13 @@
         <v>51230</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -3200,13 +3209,13 @@
         <v>113650</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3230,13 @@
         <v>174678</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>86</v>
@@ -3236,13 +3245,13 @@
         <v>96910</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>242</v>
@@ -3251,13 +3260,13 @@
         <v>271588</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3322,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3325,13 +3334,13 @@
         <v>12055</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -3379,7 +3388,7 @@
         <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>199</v>
@@ -3460,10 +3469,10 @@
         <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3487,13 @@
         <v>115227</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>75</v>
@@ -3493,13 +3502,13 @@
         <v>75936</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>187</v>
@@ -3508,13 +3517,13 @@
         <v>191163</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3538,13 @@
         <v>183338</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>120</v>
@@ -3544,13 +3553,13 @@
         <v>125915</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>295</v>
@@ -3559,13 +3568,13 @@
         <v>309252</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3642,13 @@
         <v>39203</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>28</v>
@@ -3648,13 +3657,13 @@
         <v>28497</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>65</v>
@@ -3666,10 +3675,10 @@
         <v>105</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3693,13 @@
         <v>59285</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
@@ -3699,13 +3708,13 @@
         <v>43557</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>93</v>
@@ -3714,13 +3723,13 @@
         <v>102841</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3744,13 @@
         <v>256855</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>187</v>
@@ -3750,13 +3759,13 @@
         <v>204294</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>431</v>
@@ -3765,13 +3774,13 @@
         <v>461149</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3795,13 @@
         <v>351462</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>214</v>
@@ -3801,13 +3810,13 @@
         <v>223944</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>547</v>
@@ -3816,13 +3825,13 @@
         <v>575406</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3846,13 @@
         <v>712947</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H38" s="7">
         <v>407</v>
@@ -3852,13 +3861,13 @@
         <v>446062</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M38" s="7">
         <v>1071</v>
@@ -3867,13 +3876,13 @@
         <v>1159009</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,7 +3938,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3950,7 +3959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DED7A98-CD4D-4757-A8A5-A724422C517E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C252A5-59C8-459E-B5EE-5B3FDF433145}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3967,7 +3976,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4074,13 +4083,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4089,13 +4098,13 @@
         <v>968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4104,13 +4113,13 @@
         <v>2076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4134,13 @@
         <v>1926</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4140,13 +4149,13 @@
         <v>796</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4155,13 +4164,13 @@
         <v>2722</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,13 +4185,13 @@
         <v>8286</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4191,13 +4200,13 @@
         <v>4665</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>110</v>
+        <v>293</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4206,13 +4215,13 @@
         <v>12951</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>291</v>
+        <v>34</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>80</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,13 +4236,13 @@
         <v>11687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4242,13 +4251,13 @@
         <v>12562</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -4257,13 +4266,13 @@
         <v>24249</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4287,13 @@
         <v>21015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4293,13 +4302,13 @@
         <v>10900</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -4308,13 +4317,13 @@
         <v>31914</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4391,13 @@
         <v>7721</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>106</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4397,13 +4406,13 @@
         <v>9167</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4412,13 +4421,13 @@
         <v>16887</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4442,13 @@
         <v>15575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4448,13 +4457,13 @@
         <v>11666</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -4463,13 +4472,13 @@
         <v>27241</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4493,13 @@
         <v>38360</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -4499,13 +4508,13 @@
         <v>30712</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M12" s="7">
         <v>68</v>
@@ -4514,13 +4523,13 @@
         <v>69072</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4544,13 @@
         <v>64131</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4550,13 +4559,13 @@
         <v>39652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -4565,13 +4574,13 @@
         <v>103782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4595,13 @@
         <v>73483</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -4601,13 +4610,13 @@
         <v>46281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -4616,13 +4625,13 @@
         <v>119764</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4699,13 @@
         <v>14169</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>355</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4705,13 +4714,13 @@
         <v>8311</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4720,13 +4729,13 @@
         <v>22480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4750,13 @@
         <v>21663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -4756,13 +4765,13 @@
         <v>14376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -4771,13 +4780,13 @@
         <v>36039</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>366</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4801,13 @@
         <v>77618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -4807,13 +4816,13 @@
         <v>51999</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M18" s="7">
         <v>120</v>
@@ -4822,13 +4831,13 @@
         <v>129618</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4852,13 @@
         <v>123744</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -4858,10 +4867,10 @@
         <v>81171</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>382</v>
@@ -4873,13 +4882,13 @@
         <v>204915</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4903,13 @@
         <v>176847</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
         <v>114</v>
@@ -4909,13 +4918,13 @@
         <v>117913</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
         <v>272</v>
@@ -4924,13 +4933,13 @@
         <v>294761</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>394</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5022,13 @@
         <v>7607</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>60</v>
+        <v>398</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -5028,7 +5037,7 @@
         <v>22402</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>399</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>400</v>
@@ -5052,10 +5061,10 @@
         <v>402</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>104</v>
+        <v>403</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -5064,7 +5073,7 @@
         <v>21115</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>404</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>405</v>
@@ -5079,13 +5088,13 @@
         <v>50610</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5175,13 @@
         <v>63166</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>220</v>
+        <v>421</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M25" s="7">
         <v>144</v>
@@ -5181,13 +5190,13 @@
         <v>150361</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5211,13 @@
         <v>108890</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>336</v>
+        <v>427</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -5217,13 +5226,13 @@
         <v>86159</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M26" s="7">
         <v>184</v>
@@ -5232,13 +5241,13 @@
         <v>195049</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,7 +5303,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5306,13 +5315,13 @@
         <v>11563</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>433</v>
+        <v>100</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -5321,13 +5330,13 @@
         <v>21804</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>237</v>
+        <v>437</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M28" s="7">
         <v>30</v>
@@ -5339,10 +5348,10 @@
         <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>437</v>
+        <v>192</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5366,13 @@
         <v>14036</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>440</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -5372,13 +5381,13 @@
         <v>18145</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -5387,13 +5396,13 @@
         <v>32181</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>361</v>
+        <v>446</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5417,13 @@
         <v>69714</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H30" s="7">
         <v>60</v>
@@ -5423,13 +5432,13 @@
         <v>64745</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M30" s="7">
         <v>128</v>
@@ -5438,13 +5447,13 @@
         <v>134459</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5468,13 @@
         <v>106700</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>456</v>
+        <v>294</v>
       </c>
       <c r="H31" s="7">
         <v>73</v>
@@ -5474,13 +5483,13 @@
         <v>75474</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>131</v>
+        <v>461</v>
       </c>
       <c r="M31" s="7">
         <v>180</v>
@@ -5489,13 +5498,13 @@
         <v>182175</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5519,13 @@
         <v>199158</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H32" s="7">
         <v>138</v>
@@ -5525,13 +5534,13 @@
         <v>145306</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M32" s="7">
         <v>333</v>
@@ -5540,13 +5549,13 @@
         <v>344464</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>468</v>
+        <v>266</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5623,13 @@
         <v>49355</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>472</v>
+        <v>59</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>200</v>
+        <v>474</v>
       </c>
       <c r="H34" s="7">
         <v>45</v>
@@ -5629,13 +5638,13 @@
         <v>47858</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>30</v>
+        <v>323</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M34" s="7">
         <v>87</v>
@@ -5644,13 +5653,13 @@
         <v>97213</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>476</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5674,13 @@
         <v>82695</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H35" s="7">
         <v>64</v>
@@ -5680,13 +5689,13 @@
         <v>66098</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>202</v>
+        <v>482</v>
       </c>
       <c r="M35" s="7">
         <v>139</v>
@@ -5695,13 +5704,13 @@
         <v>148792</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,13 +5725,13 @@
         <v>317423</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H36" s="7">
         <v>238</v>
@@ -5731,13 +5740,13 @@
         <v>244633</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>486</v>
+        <v>222</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M36" s="7">
         <v>526</v>
@@ -5746,13 +5755,13 @@
         <v>562056</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5776,13 @@
         <v>393457</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>209</v>
+        <v>495</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H37" s="7">
         <v>271</v>
@@ -5782,13 +5791,13 @@
         <v>272025</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M37" s="7">
         <v>647</v>
@@ -5797,13 +5806,13 @@
         <v>665481</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>497</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5827,13 @@
         <v>579393</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>499</v>
+        <v>417</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H38" s="7">
         <v>395</v>
@@ -5833,13 +5842,13 @@
         <v>406559</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="M38" s="7">
         <v>937</v>
@@ -5848,13 +5857,13 @@
         <v>985952</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,7 +5919,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
